--- a/medicine/Mort/Kandisha_(film,_2020)/Kandisha_(film,_2020).xlsx
+++ b/medicine/Mort/Kandisha_(film,_2020)/Kandisha_(film,_2020).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kandisha est un film d'horreur français écrit et réalisé par Alexandre Bustillo et Julien Maury, sorti en 2020.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une bande de filles vivant dans des barres d'immeubles, se retrouvent dans leurs repaires, un immeuble abandonné. Sous les papiers peints, elles découvrent un tag qui va inciter l'une d'elles à invoquer Aïsha Kandisha à la suite d'une agression. La créature se matérialisant dans leurs vies de manière violente, les filles tentent de la combattre avant qu'elle ne prennent les six vies d'hommes exigées. Cela se terminera mal pour l'invocatrice.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original et français : Kandisha
 Réalisation et scénario : Alexandre Bustillo et Julien Maury
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mériem Sarolie : Kandisha
 Mathilde Lamusse : Amélie
@@ -629,6 +647,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
